--- a/data/auto.xlsx
+++ b/data/auto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\kellygkemnitz\development\pyinsurance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942FA0EC-F6EC-4D1B-82C0-F61D74F3A84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A2D413-BC19-4EA2-AFB1-BF6CA7C27438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>DATE</t>
   </si>
@@ -65,10 +65,7 @@
     <t>ALLSTATE</t>
   </si>
   <si>
-    <t>NATIONAL GENERAL</t>
-  </si>
-  <si>
-    <t>PROGRESSIVE</t>
+    <t>NATIONAL GENERAL/PROGRESSIVE</t>
   </si>
 </sst>
 </file>
@@ -121,21 +118,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -196,6 +188,9 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -210,17 +205,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{453DA2EE-4802-489F-A912-CD97078C8579}" name="Table1" displayName="Table1" ref="A1:H19" totalsRowShown="0">
-  <autoFilter ref="A1:H19" xr:uid="{453DA2EE-4802-489F-A912-CD97078C8579}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{453DA2EE-4802-489F-A912-CD97078C8579}" name="Table1" displayName="Table1" ref="A1:H18" totalsRowShown="0">
+  <autoFilter ref="A1:H18" xr:uid="{453DA2EE-4802-489F-A912-CD97078C8579}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4986CDE1-13A6-4F85-9C42-25527BB35BE1}" name="DATE"/>
-    <tableColumn id="7" xr3:uid="{603466A6-6B75-4A1F-B5EA-DD68F826F3BB}" name="INSURER" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{91EDD428-A3FF-4829-B427-8FBED40B39AC}" name="2017 HYUNDAI SONATA" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{603466A6-6B75-4A1F-B5EA-DD68F826F3BB}" name="INSURER" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{91EDD428-A3FF-4829-B427-8FBED40B39AC}" name="2017 HYUNDAI SONATA" dataDxfId="4" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{09B35F01-18D2-43F7-9036-EE331ACA1268}" name="2020 TOYOTA TACOMA" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{17FB9D2F-364F-4E1B-96B0-40AE62A6E3C5}" name="2012 CHEVY CRUZE" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{6ED43F2E-314B-4B4B-9E1B-F8962CBC55F6}" name="2016 TOYOTA COROLLA" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{DA1488AE-9F9D-4937-84C7-48561583A30A}" name="2003 HONDA ACCORD" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{AB880447-78F4-4A06-B070-C09C732799AE}" name="TOTAL" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{17FB9D2F-364F-4E1B-96B0-40AE62A6E3C5}" name="2012 CHEVY CRUZE" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{6ED43F2E-314B-4B4B-9E1B-F8962CBC55F6}" name="2016 TOYOTA COROLLA" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{DA1488AE-9F9D-4937-84C7-48561583A30A}" name="2003 HONDA ACCORD" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{AB880447-78F4-4A06-B070-C09C732799AE}" name="TOTAL" dataDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[2017 HYUNDAI SONATA]:[2003 HONDA ACCORD]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -491,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,29 +906,12 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>1711</v>
+      </c>
       <c r="H18" s="2">
         <f>SUM(Table1[[#This Row],[2017 HYUNDAI SONATA]:[2003 HONDA ACCORD]])</f>
-        <v>2276.3599999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45575</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>1711</v>
-      </c>
-      <c r="H19" s="4">
-        <f>SUM(Table1[[#This Row],[2017 HYUNDAI SONATA]:[2003 HONDA ACCORD]])</f>
-        <v>1711</v>
+        <v>3987.3599999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/auto.xlsx
+++ b/data/auto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\kellygkemnitz\development\pyinsurance\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellygkemnitz/Development/pyinsurance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A2D413-BC19-4EA2-AFB1-BF6CA7C27438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A711AC-EFF6-B044-87D8-37771075C2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>DATE</t>
   </si>
@@ -66,14 +66,18 @@
   </si>
   <si>
     <t>NATIONAL GENERAL/PROGRESSIVE</t>
+  </si>
+  <si>
+    <t>PROGRESSIVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -118,10 +122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -186,10 +193,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -205,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{453DA2EE-4802-489F-A912-CD97078C8579}" name="Table1" displayName="Table1" ref="A1:H18" totalsRowShown="0">
-  <autoFilter ref="A1:H18" xr:uid="{453DA2EE-4802-489F-A912-CD97078C8579}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{453DA2EE-4802-489F-A912-CD97078C8579}" name="Table1" displayName="Table1" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{453DA2EE-4802-489F-A912-CD97078C8579}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4986CDE1-13A6-4F85-9C42-25527BB35BE1}" name="DATE"/>
     <tableColumn id="7" xr3:uid="{603466A6-6B75-4A1F-B5EA-DD68F826F3BB}" name="INSURER" dataDxfId="5"/>
@@ -486,24 +493,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44104</v>
       </c>
@@ -550,7 +557,7 @@
         <v>934.81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44288</v>
       </c>
@@ -571,7 +578,7 @@
         <v>1040.3800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44317</v>
       </c>
@@ -594,7 +601,7 @@
         <v>1471.7600000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44474</v>
       </c>
@@ -617,7 +624,7 @@
         <v>1473.73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44624</v>
       </c>
@@ -640,7 +647,7 @@
         <v>1909.53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44630</v>
       </c>
@@ -663,7 +670,7 @@
         <v>1881.9099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44653</v>
       </c>
@@ -686,7 +693,7 @@
         <v>2319.98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44840</v>
       </c>
@@ -709,7 +716,7 @@
         <v>2892.4400000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44863</v>
       </c>
@@ -730,7 +737,7 @@
         <v>2290.14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44944</v>
       </c>
@@ -753,7 +760,7 @@
         <v>2450.15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45020</v>
       </c>
@@ -776,7 +783,7 @@
         <v>2931.2999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45163</v>
       </c>
@@ -799,7 +806,7 @@
         <v>2564.08</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45176</v>
       </c>
@@ -822,7 +829,7 @@
         <v>2432.5100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45203</v>
       </c>
@@ -845,7 +852,7 @@
         <v>3832.55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45385</v>
       </c>
@@ -868,7 +875,7 @@
         <v>3925.41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45568</v>
       </c>
@@ -891,7 +898,7 @@
         <v>4474.72</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45575</v>
       </c>
@@ -912,6 +919,29 @@
       <c r="H18" s="2">
         <f>SUM(Table1[[#This Row],[2017 HYUNDAI SONATA]:[2003 HONDA ACCORD]])</f>
         <v>3987.3599999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1544</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1344</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>451</v>
+      </c>
+      <c r="H19" s="5">
+        <f>SUM(Table1[[#This Row],[2017 HYUNDAI SONATA]:[2003 HONDA ACCORD]])</f>
+        <v>3339</v>
       </c>
     </row>
   </sheetData>
